--- a/Chonqqing Power Grid/data-output/运维及成本合并删除增加电商等14-18-金额.xlsx
+++ b/Chonqqing Power Grid/data-output/运维及成本合并删除增加电商等14-18-金额.xlsx
@@ -2125,19 +2125,19 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>44015618.72000001</v>
+        <v>2742569.67</v>
       </c>
       <c r="D67">
-        <v>50129354.00000001</v>
+        <v>3122143.954999999</v>
       </c>
       <c r="E67">
-        <v>51017869.84</v>
+        <v>3178286.935</v>
       </c>
       <c r="F67">
-        <v>15357034.4</v>
+        <v>939924.65</v>
       </c>
       <c r="G67">
-        <v>3771598.72</v>
+        <v>207724.84</v>
       </c>
     </row>
     <row r="68" spans="1:7">
